--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/4 Boroi Hati Khal/Boroi_hati_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/4 Boroi Hati Khal/Boroi_hati_Dataprep_Input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A060EAB-6D9A-44AE-9997-F14FBC807649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5CA16A-0073-43A3-ADA3-20CC3674B865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -22881,6 +22881,11 @@
     <mergeCell ref="I98:M98"/>
     <mergeCell ref="H142:I142"/>
     <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="I117:M117"/>
+    <mergeCell ref="H141:I141"/>
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="B81:G81"/>
@@ -22896,11 +22901,6 @@
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="I64:M64"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="I117:M117"/>
-    <mergeCell ref="H141:I141"/>
     <mergeCell ref="H169:I169"/>
     <mergeCell ref="H170:I170"/>
     <mergeCell ref="B171:G171"/>
@@ -22982,8 +22982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -23489,7 +23489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
